--- a/2018周报/20180309周报/技术支撑服务人员周报日报-20180309.xlsx
+++ b/2018周报/20180309周报/技术支撑服务人员周报日报-20180309.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.梳理重构接口逻辑,撰写SRS</t>
+  </si>
+  <si>
+    <t>文档</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -103,8 +109,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +128,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -124,54 +135,178 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +315,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,18 +534,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,19 +835,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -575,384 +1179,393 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6">
+        <v>20180305</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180309</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180309周报/技术支撑服务人员周报日报-20180309.xlsx
+++ b/2018周报/20180309周报/技术支撑服务人员周报日报-20180309.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="13815" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -58,6 +58,12 @@
     <t>杜智恒</t>
   </si>
   <si>
+    <t>搭建flume和logstash环境，并做相应配置</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>曾昌林</t>
   </si>
   <si>
+    <t>听歌狂人前端联调</t>
+  </si>
+  <si>
     <t>何娟</t>
   </si>
   <si>
@@ -104,21 +113,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>听歌狂人前端联调</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,24 +167,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,12 +324,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -225,18 +549,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -278,19 +850,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -581,400 +1194,409 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6">
+        <v>20180305</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20180309</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180305</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180309</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180305</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180309</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180305</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180309</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180305</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180309</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>